--- a/salary_template.xlsx
+++ b/salary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\53\systems\Finance\WhatsaApp_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46567D-BC8F-40D2-BBD8-9D30642CAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C7A2C-1E1B-411B-B74A-171423CEFB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
+    <workbookView xWindow="-38520" yWindow="-1935" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <t>mmnnbk</t>
   </si>
   <si>
-    <t>اللواء 53 مشاة مستقل القسم المالي</t>
+    <t>اللواء 53 مشاة مسقل القسم المالي</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1847,8 @@
   <sheetPr codeName="data1"/>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CFFF21-CA5D-4C13-92EC-176FD3572423}">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P10" sqref="P10:Q10"/>
     </sheetView>
   </sheetViews>

--- a/salary_template.xlsx
+++ b/salary_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\53\systems\Finance\WhatsaApp_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C7A2C-1E1B-411B-B74A-171423CEFB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6E50F-EBEC-4731-9D27-A7025E55EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1935" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
+    <workbookView minimized="1" xWindow="2196" yWindow="2184" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="photo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">photo!$B$2:$O$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>الدرجة</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Solidarity</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>Contact_Name</t>
@@ -182,10 +179,28 @@
     <t>nnm</t>
   </si>
   <si>
-    <t>mmnnbk</t>
-  </si>
-  <si>
     <t>اللواء 53 مشاة مسقل القسم المالي</t>
+  </si>
+  <si>
+    <t>المهدي عبدالله المهدي الزعلوك</t>
+  </si>
+  <si>
+    <t>سالم محمد سالم الهش</t>
+  </si>
+  <si>
+    <t>سالم الهش</t>
+  </si>
+  <si>
+    <t>ضابط</t>
+  </si>
+  <si>
+    <t>جهاد عمرو موسى انكيسة</t>
+  </si>
+  <si>
+    <t>Jihad Enkisha</t>
+  </si>
+  <si>
+    <t>Degree</t>
   </si>
 </sst>
 </file>
@@ -789,17 +804,146 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -819,6 +963,12 @@
     <xf numFmtId="167" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,141 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1162,7 @@
           <xdr:col>3264</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1517,14 +1532,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}" name="Table1" displayName="Table1" ref="A1:R4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="A1:R4" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}" name="Table1" displayName="Table1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:R5" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{7911449A-8D13-45D2-8382-4CE126029D0A}" name="Contact_Name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DF853B49-E3C5-4A5C-AAED-9D326F86C273}" name="Category" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DF853B49-E3C5-4A5C-AAED-9D326F86C273}" name="Rank" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{546BC99E-B78E-4CF5-88DD-FE1C41EBBA61}" name="Military ID" dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{C25FC5D2-9418-4D65-8649-BC0A68648BB6}" name="Military Name" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{C566D4E1-586D-42CA-9259-7CB7156F015C}" name="Rank" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{C566D4E1-586D-42CA-9259-7CB7156F015C}" name="Degree" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{90320821-4DDE-4972-BB7C-4A284F757D4E}" name="Number of Increments" dataDxfId="14"/>
     <tableColumn id="7" xr3:uid="{461794D6-C516-4DB3-9E83-8918D6BAEEB8}" name="Basic Salary" dataDxfId="13"/>
     <tableColumn id="8" xr3:uid="{451AF241-58CC-433A-B7F8-27CC3379283D}" name="Military Allowance" dataDxfId="12"/>
@@ -1845,10 +1860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F9FAC-A0A9-4D80-9606-8B8933BC5581}">
   <sheetPr codeName="data1"/>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1879,10 +1894,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -1891,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -1935,28 +1950,28 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>12345</v>
+        <v>361129</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>75879</v>
+        <v>2080</v>
       </c>
       <c r="H2" s="4">
-        <v>766</v>
+        <v>200</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -1968,38 +1983,37 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>1210</v>
+        <v>2730</v>
       </c>
       <c r="M2" s="4">
-        <v>60.5</v>
+        <v>136.5</v>
       </c>
       <c r="N2" s="4">
-        <v>12.1</v>
+        <v>27.3</v>
       </c>
       <c r="O2" s="4">
-        <v>34.122</v>
+        <v>76.986000000000004</v>
       </c>
       <c r="P2" s="4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" ref="Q2" si="0">P2+O2+N2+M2</f>
-        <v>106.72200000000001</v>
+        <v>380.786</v>
       </c>
       <c r="R2" s="4">
-        <v>6574</v>
+        <v>2349.2139999999999</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f t="shared" ref="W2" si="1">V2+U2+T2+S2</f>
+        <f t="shared" ref="W2" si="0">V2+U2+T2+S2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -2008,7 +2022,7 @@
         <v>12346</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2047,23 +2061,23 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q4" si="2">P3+O3+N3+M3</f>
+        <f t="shared" ref="Q3" si="1">P3+O3+N3+M3</f>
         <v>106.72200000000001</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3" si="3">L3-Q3</f>
+        <f t="shared" ref="R3" si="2">L3-Q3</f>
         <v>1103.278</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>12347</v>
+        <v>710543</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -2105,15 +2119,70 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="2"/>
         <v>106.72200000000001</v>
       </c>
       <c r="R4" s="4">
-        <v>689</v>
+        <v>1103.278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38845</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2040</v>
+      </c>
+      <c r="H5" s="4">
+        <v>250</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4">
+        <v>450</v>
+      </c>
+      <c r="K5" s="4">
+        <v>150</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2990</v>
+      </c>
+      <c r="M5" s="4">
+        <v>149.5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="O5" s="4">
+        <v>84.317999999999998</v>
+      </c>
+      <c r="P5" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>363.71799999999996</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2626.2820000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C4">
+  <conditionalFormatting sqref="C2:C5">
     <cfRule type="duplicateValues" dxfId="1" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
@@ -2139,7 +2208,7 @@
                 <xdr:col>3264</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>129540</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2161,7 +2230,7 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:Q10"/>
+      <selection activeCell="B2" sqref="B2:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="23.25" customHeight="1"/>
@@ -2189,69 +2258,69 @@
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="65">
+      <c r="L3" s="40">
         <v>45779</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1">
       <c r="B4" s="12"/>
-      <c r="C4" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1">
       <c r="B6" s="12"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -2266,8 +2335,8 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2295,16 +2364,16 @@
       <c r="B9" s="12"/>
       <c r="C9" s="17"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
+      <c r="E9" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="14"/>
@@ -2312,236 +2381,236 @@
     <row r="10" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B10" s="12"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25">
+        <v>38845</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="54">
-        <v>12347</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
       <c r="N10" s="16"/>
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B12" s="12"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="25" t="s">
+      <c r="D12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="60">
-        <v>9</v>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="35">
+        <v>10</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="16"/>
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B13" s="12"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="41"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="16"/>
       <c r="O13" s="14"/>
     </row>
     <row r="14" spans="2:15" ht="26.4" customHeight="1" thickTop="1">
       <c r="B14" s="12"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="66">
+        <v>0</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="48">
-        <v>1</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="42">
-        <v>610</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="60">
+        <v>2040</v>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="16"/>
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B15" s="12"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
       <c r="N15" s="16"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B16" s="12"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="29">
-        <v>150</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="25" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="72">
+        <v>250</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="42">
-        <v>0</v>
-      </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="60">
+        <v>100</v>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="16"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B17" s="12"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="16"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B18" s="12"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="29">
+      <c r="E18" s="31"/>
+      <c r="F18" s="72">
         <v>450</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="25" t="s">
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="42">
-        <v>0</v>
-      </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="60">
+        <v>150</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="16"/>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B19" s="12"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
       <c r="N19" s="16"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B20" s="12"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="29">
-        <v>1210</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
+      <c r="D20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="72">
+        <v>2990</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="16"/>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B21" s="12"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="16"/>
       <c r="O21" s="14"/>
     </row>
@@ -2565,16 +2634,16 @@
       <c r="B23" s="12"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="E23" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
       <c r="M23" s="15"/>
       <c r="N23" s="16"/>
       <c r="O23" s="14"/>
@@ -2582,116 +2651,116 @@
     <row r="24" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B24" s="12"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="29">
-        <v>60.5</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="25" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="72">
+        <v>149.5</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42">
-        <v>12.1</v>
-      </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="60">
+        <v>29.9</v>
+      </c>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="16"/>
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B25" s="12"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
       <c r="N25" s="16"/>
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B26" s="12"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="29">
-        <v>34.122</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="72">
+        <v>84.317999999999998</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="60">
+        <v>100</v>
+      </c>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="16"/>
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B27" s="12"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
       <c r="N27" s="16"/>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
       <c r="B28" s="12"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29">
-        <v>106.72200000000001</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="72">
+        <v>363.71799999999996</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="16"/>
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="B29" s="12"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="16"/>
       <c r="O29" s="14"/>
     </row>
@@ -2715,18 +2784,18 @@
       <c r="B31" s="12"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36">
-        <v>689</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="E31" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81">
+        <v>2626.2820000000002</v>
+      </c>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
       <c r="M31" s="18"/>
       <c r="N31" s="16"/>
       <c r="O31" s="14"/>
@@ -2735,14 +2804,14 @@
       <c r="B32" s="12"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
       <c r="M32" s="18"/>
       <c r="N32" s="16"/>
       <c r="O32" s="14"/>
@@ -2797,6 +2866,33 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:M29"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="H31:L32"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:M21"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:M15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:M17"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
@@ -2812,33 +2908,6 @@
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="K10:M11"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:M15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:M21"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:M29"/>
-    <mergeCell ref="E31:G32"/>
-    <mergeCell ref="H31:L32"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="91" orientation="landscape" r:id="rId1"/>

--- a/salary_template.xlsx
+++ b/salary_template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\53\systems\Finance\WhatsaApp_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6E50F-EBEC-4731-9D27-A7025E55EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFA917-E1BD-4D05-A94F-D7535D4E371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2196" yWindow="2184" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6E5440B-EB67-4483-BD6D-3A637333E02E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="photo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">photo!$B$2:$O$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>الدرجة</t>
   </si>
@@ -185,19 +185,10 @@
     <t>المهدي عبدالله المهدي الزعلوك</t>
   </si>
   <si>
-    <t>سالم محمد سالم الهش</t>
-  </si>
-  <si>
-    <t>سالم الهش</t>
-  </si>
-  <si>
     <t>ضابط</t>
   </si>
   <si>
     <t>جهاد عمرو موسى انكيسة</t>
-  </si>
-  <si>
-    <t>Jihad Enkisha</t>
   </si>
   <si>
     <t>Degree</t>
@@ -766,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,7 +771,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1532,8 +1522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}" name="Table1" displayName="Table1" ref="A1:R5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="A1:R5" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}" name="Table1" displayName="Table1" ref="A1:R3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:R3" xr:uid="{3401033A-69F6-4D5B-B023-1B6CA8C413E9}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{7911449A-8D13-45D2-8382-4CE126029D0A}" name="Contact_Name" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{DF853B49-E3C5-4A5C-AAED-9D326F86C273}" name="Rank" dataDxfId="18"/>
@@ -1860,10 +1850,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F9FAC-A0A9-4D80-9606-8B8933BC5581}">
   <sheetPr codeName="data1"/>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1892,89 +1882,89 @@
     <col min="22" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.600000000000001" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>361129</v>
+        <v>12346</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2080</v>
+        <v>610</v>
       </c>
       <c r="H2" s="4">
-        <v>200</v>
+        <v>987</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4">
         <v>450</v>
@@ -1983,46 +1973,41 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>2730</v>
+        <v>1210</v>
       </c>
       <c r="M2" s="4">
-        <v>136.5</v>
+        <v>60.5</v>
       </c>
       <c r="N2" s="4">
-        <v>27.3</v>
+        <v>12.1</v>
       </c>
       <c r="O2" s="4">
-        <v>76.986000000000004</v>
+        <v>34.122</v>
       </c>
       <c r="P2" s="4">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <v>380.786</v>
+        <f t="shared" ref="Q2" si="0">P2+O2+N2+M2</f>
+        <v>106.72200000000001</v>
       </c>
       <c r="R2" s="4">
-        <v>2349.2139999999999</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <f t="shared" ref="W2" si="0">V2+U2+T2+S2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <f t="shared" ref="R2" si="1">L2-Q2</f>
+        <v>1103.278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>12346</v>
+        <v>710543</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2034,10 +2019,10 @@
         <v>610</v>
       </c>
       <c r="H3" s="4">
-        <v>987</v>
+        <v>150</v>
       </c>
       <c r="I3" s="4">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <v>450</v>
@@ -2061,132 +2046,18 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3" si="1">P3+O3+N3+M3</f>
         <v>106.72200000000001</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3" si="2">L3-Q3</f>
         <v>1103.278</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>710543</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>610</v>
-      </c>
-      <c r="H4" s="4">
-        <v>150</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>450</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1210</v>
-      </c>
-      <c r="M4" s="4">
-        <v>60.5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>34.122</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>106.72200000000001</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1103.278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3">
-        <v>38845</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2040</v>
-      </c>
-      <c r="H5" s="4">
-        <v>250</v>
-      </c>
-      <c r="I5" s="4">
-        <v>100</v>
-      </c>
-      <c r="J5" s="4">
-        <v>450</v>
-      </c>
-      <c r="K5" s="4">
-        <v>150</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2990</v>
-      </c>
-      <c r="M5" s="4">
-        <v>149.5</v>
-      </c>
-      <c r="N5" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="O5" s="4">
-        <v>84.317999999999998</v>
-      </c>
-      <c r="P5" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>363.71799999999996</v>
-      </c>
-      <c r="R5" s="4">
-        <v>2626.2820000000002</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C5">
-    <cfRule type="duplicateValues" dxfId="1" priority="121"/>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="98"/>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2229,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CFFF21-CA5D-4C13-92EC-176FD3572423}">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:O35"/>
     </sheetView>
   </sheetViews>
@@ -2241,628 +2112,628 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="40">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="39">
         <v>45779</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="14"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="14"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" ht="59.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="50" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="14"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25">
+      <c r="E10" s="25"/>
+      <c r="F10" s="24">
         <v>38845</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="56" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="14"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B12" s="12"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="29" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="35">
+      <c r="J12" s="30"/>
+      <c r="K12" s="34">
         <v>10</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="14"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="2:15" ht="26.4" customHeight="1" thickTop="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="29" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="66">
+      <c r="E14" s="30"/>
+      <c r="F14" s="65">
         <v>0</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="29" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="60">
+      <c r="J14" s="30"/>
+      <c r="K14" s="59">
         <v>2040</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B16" s="12"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="72">
+      <c r="E16" s="30"/>
+      <c r="F16" s="71">
         <v>250</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="29" t="s">
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="60">
+      <c r="J16" s="30"/>
+      <c r="K16" s="59">
         <v>100</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="14"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="72">
+      <c r="E18" s="30"/>
+      <c r="F18" s="71">
         <v>450</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="60">
+      <c r="J18" s="30"/>
+      <c r="K18" s="59">
         <v>150</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="14"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="29" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="72">
+      <c r="E20" s="30"/>
+      <c r="F20" s="71">
         <v>2990</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="14"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="52.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="82" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="14"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="13"/>
     </row>
     <row r="24" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="29" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="72">
+      <c r="E24" s="30"/>
+      <c r="F24" s="71">
         <v>149.5</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="29" t="s">
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="60">
+      <c r="J24" s="30"/>
+      <c r="K24" s="59">
         <v>29.9</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="14"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="29" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="72">
+      <c r="E26" s="30"/>
+      <c r="F26" s="71">
         <v>84.317999999999998</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="29" t="s">
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="60">
+      <c r="J26" s="30"/>
+      <c r="K26" s="59">
         <v>100</v>
       </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="14"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="29" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="72">
+      <c r="E28" s="77"/>
+      <c r="F28" s="71">
         <v>363.71799999999996</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="14"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="2:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B29" s="12"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="2:15" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B30" s="12"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:15" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B31" s="12"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="80" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81">
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80">
         <v>2626.2820000000002</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="14"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="2:15" ht="23.25" customHeight="1" thickTop="1">
-      <c r="B33" s="12"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B34" s="12"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="26.25" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="42">
